--- a/API기능개발요구서.xlsx
+++ b/API기능개발요구서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>산자부 과제 조선소 설계/생산 정보 일원화 기술 및 조회 시스템</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,10 @@
   </si>
   <si>
     <t>5. Muti Viewer모델 이용시 오른쪽 마우스로 Context Menu가 메인 뷰만 나옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Model Tree List를 받아 오는 API </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,13 +132,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>560222</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>37650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -428,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B12"/>
+  <dimension ref="B2:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -471,14 +475,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
